--- a/video-cms-app/public/templates/video_items_template_empty.xlsx
+++ b/video-cms-app/public/templates/video_items_template_empty.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Title</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Rank Type</t>
-  </si>
-  <si>
-    <t>Rank Label</t>
   </si>
   <si>
     <t>Label</t>
@@ -100,9 +97,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,29 +397,28 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:L1"/>
+      <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12" customWidth="true" style="0"/>
-    <col min="5" max="5" width="15" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15" customWidth="true" style="0"/>
-    <col min="12" max="12" width="30" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="13.997" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,9 +451,6 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
